--- a/doc/BeispielCSV1.xlsx
+++ b/doc/BeispielCSV1.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/779bcb46c6cff862/Hochschule Karlsruhe/Master/Semester 3/Projektarbeit 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Projektarbeit_Fitts\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="FB05A53CE35B158E902CB1A9B98F33316F14C7CB" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{84DF417F-4D7B-4A5A-A8A6-ABD1182772DA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{0846FDE5-04F2-4865-B57E-8391E227499F}"/>
   </bookViews>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>Versuchseinstellung</t>
   </si>
@@ -39,9 +38,6 @@
     <t>DeviceMouse</t>
   </si>
   <si>
-    <t>Device Touch</t>
-  </si>
-  <si>
     <t>DevicePen</t>
   </si>
   <si>
@@ -69,9 +65,6 @@
     <t>Computername</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
     <t>OS</t>
   </si>
   <si>
@@ -93,9 +86,6 @@
     <t>Zeit (ms)</t>
   </si>
   <si>
-    <t>Shortcut (pressed)</t>
-  </si>
-  <si>
     <t>Julian</t>
   </si>
   <si>
@@ -108,18 +98,12 @@
     <t>0=Left, 1=Right</t>
   </si>
   <si>
-    <t>a comment…</t>
-  </si>
-  <si>
     <t>1.0.0</t>
   </si>
   <si>
     <t>Zenbook</t>
   </si>
   <si>
-    <t>JulianZenbook</t>
-  </si>
-  <si>
     <t>Windows NT</t>
   </si>
   <si>
@@ -138,9 +122,6 @@
     <t>…</t>
   </si>
   <si>
-    <t>Shortcut (displayed)</t>
-  </si>
-  <si>
     <t>Icons</t>
   </si>
   <si>
@@ -175,13 +156,67 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>DeviceTouch</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Rounds</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Rundenanzahl</t>
+  </si>
+  <si>
+    <t>"a comment…"</t>
+  </si>
+  <si>
+    <t>Experiment 1: Measured Data</t>
+  </si>
+  <si>
+    <t>Experiment 2: Measured Data</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Experiment1 or Experiment2</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>Befehl (angezeigt)</t>
+  </si>
+  <si>
+    <t>Shortcut (gedrückt)</t>
+  </si>
+  <si>
+    <t>Shortcut (ausgewählt)</t>
+  </si>
+  <si>
+    <t>Drucken</t>
+  </si>
+  <si>
+    <t>Strg+P</t>
+  </si>
+  <si>
+    <t>Versuch 1</t>
+  </si>
+  <si>
+    <t>Versuch 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,8 +232,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +268,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,25 +352,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -330,9 +387,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -351,15 +405,70 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="40 % - Akzent1" xfId="1" builtinId="31"/>
+    <cellStyle name="40 % - Akzent3" xfId="2" builtinId="39"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -668,319 +777,389 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25DBC62-C0EA-4582-A930-8018F928540F}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="25" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="55" style="21" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="25" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="55" style="17" customWidth="1"/>
     <col min="5" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="22" t="s">
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="15">
+        <v>25</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="14"/>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="23">
+        <v>50</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="23">
+        <v>0</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="23">
+        <v>1</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="22" spans="1:4" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="32">
+        <v>400</v>
+      </c>
+      <c r="D23" s="31"/>
+    </row>
+    <row r="24" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="32">
+        <v>300</v>
+      </c>
+      <c r="D24" s="31"/>
+    </row>
+    <row r="25" spans="1:4" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="31"/>
+    </row>
+    <row r="26" spans="1:4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="41">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="16">
-        <v>1</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="16">
-        <v>0</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="16">
-        <v>0</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="16"/>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="18">
-        <v>25</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="17">
-        <v>0</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="17">
-        <v>0</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="17">
-        <v>1</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="21" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="20"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="14">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="14">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="21"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="16" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="19" t="s">
-        <v>20</v>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="36" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
